--- a/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
+++ b/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Fecha Ticket</t>
   </si>
@@ -197,9 +197,6 @@
     <t>RESIDUO INDUSTRIAL P.ELECTRICA</t>
   </si>
   <si>
-    <t>18-UE212</t>
-  </si>
-  <si>
     <t>BAL</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>TERPEL- COMERCIAL ECUADOR</t>
   </si>
   <si>
-    <t>BURBANO GARCIA RAMIRO ARNULFO</t>
-  </si>
-  <si>
     <t>06-00000055</t>
   </si>
   <si>
@@ -266,61 +260,7 @@
     <t>IBARRA VALLEJO EDUARDO GUILLER</t>
   </si>
   <si>
-    <t>18-UE191</t>
-  </si>
-  <si>
-    <t>PASQUEL GUERRERO HUGO RAFAEL</t>
-  </si>
-  <si>
-    <t>18-UE203</t>
-  </si>
-  <si>
-    <t>ERAZO ANDRADE LUISA</t>
-  </si>
-  <si>
-    <t>18-UE210</t>
-  </si>
-  <si>
-    <t>18-UE208</t>
-  </si>
-  <si>
-    <t>COBA CHAMORRO MARIA DEL PILAR</t>
-  </si>
-  <si>
-    <t>18-UE211</t>
-  </si>
-  <si>
-    <t>PINEDA PINEDA MARIA DE LOURDES</t>
-  </si>
-  <si>
-    <t>18-UE192</t>
-  </si>
-  <si>
-    <t>18-UE251</t>
-  </si>
-  <si>
-    <t>TRAIMCOBSA TRANSPORTES IMPORTA</t>
-  </si>
-  <si>
-    <t>18-UE255</t>
-  </si>
-  <si>
-    <t>18-UE213</t>
-  </si>
-  <si>
-    <t>BURBANO GARCIA EDISON RICARDO</t>
-  </si>
-  <si>
     <t>JTUQUERES</t>
-  </si>
-  <si>
-    <t>18-UE257</t>
-  </si>
-  <si>
-    <t>C.E.T.S.O. TRANSPORTE EXTRAPES</t>
-  </si>
-  <si>
-    <t>18-UE258</t>
   </si>
   <si>
     <t>Razon Social 2</t>
@@ -729,7 +669,7 @@
   <dimension ref="A1:BC145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="A6" sqref="A6:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +841,7 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -915,10 +855,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4">
         <v>4400097565</v>
@@ -930,7 +870,7 @@
         <v>240394</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="5">
         <v>55340</v>
@@ -954,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4">
         <v>10</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W2" s="4">
         <v>7990</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AB2" s="4">
         <v>1024637</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="4">
         <v>1021420</v>
@@ -1012,7 +952,7 @@
         <v>11303.14</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AN2" s="3">
         <v>44656</v>
@@ -1039,26 +979,26 @@
         <v>0.32734953703703701</v>
       </c>
       <c r="AV2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ2" s="19">
         <v>1002200000000</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB2" s="19">
         <v>1002200000000</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -1072,10 +1012,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4">
         <v>4400097565</v>
@@ -1087,7 +1027,7 @@
         <v>240395</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J3" s="5">
         <v>53530</v>
@@ -1111,37 +1051,37 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4">
         <v>10</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" s="4">
         <v>8000</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AB3" s="4">
         <v>1024637</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="4">
         <v>1013917</v>
@@ -1169,7 +1109,7 @@
         <v>11309.64</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AN3" s="3">
         <v>44656</v>
@@ -1196,26 +1136,26 @@
         <v>0.4288541666666667</v>
       </c>
       <c r="AV3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ3" s="19">
         <v>1001200000000</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB3" s="19">
         <v>1001200000000</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -1244,7 +1184,7 @@
         <v>240700</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="5">
         <v>54080</v>
@@ -1268,37 +1208,37 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4">
         <v>10</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="4">
         <v>23660</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AB4" s="4">
         <v>1024637</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD4" s="4">
         <v>1013520</v>
@@ -1326,7 +1266,7 @@
         <v>4584.88</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AN4" s="3">
         <v>44656</v>
@@ -1353,26 +1293,26 @@
         <v>0.36539351851851848</v>
       </c>
       <c r="AV4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ4" s="19">
         <v>1791900000000</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB4" s="19">
         <v>1791900000000</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -1401,7 +1341,7 @@
         <v>240595</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J5" s="5">
         <v>54970</v>
@@ -1425,37 +1365,37 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4">
         <v>10</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" s="4">
         <v>23670</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AB5" s="4">
         <v>1024637</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="4">
         <v>1013922</v>
@@ -1483,7 +1423,7 @@
         <v>4617.18</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AN5" s="3">
         <v>44656</v>
@@ -1510,346 +1450,144 @@
         <v>0.41270833333333329</v>
       </c>
       <c r="AV5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW5" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ5" s="19">
         <v>1001200000000</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB5" s="19">
         <v>1001200000000</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44656</v>
-      </c>
-      <c r="B6" s="4">
-        <v>503573</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G6" s="4">
-        <v>10086339</v>
-      </c>
-      <c r="H6" s="4">
-        <v>240602</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="5">
-        <v>54870</v>
-      </c>
-      <c r="K6" s="5">
-        <v>20590</v>
-      </c>
-      <c r="L6" s="5">
-        <v>34280</v>
-      </c>
-      <c r="M6" s="5">
-        <v>9441.4</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>9441.4</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4">
-        <v>10</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="4">
-        <v>23680</v>
-      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>10008034</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>5002170902</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>1180.17</v>
-      </c>
-      <c r="AK6" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>4613.1400000000003</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>0.37731481481481483</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>0.47094907407407405</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>0.37731481481481483</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>0.47091435185185188</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
-      <c r="AY6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ6" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB6" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="4"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44656</v>
-      </c>
-      <c r="B7" s="4">
-        <v>503595</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10086426</v>
-      </c>
-      <c r="H7" s="4">
-        <v>240596</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="5">
-        <v>53430</v>
-      </c>
-      <c r="K7" s="5">
-        <v>19160</v>
-      </c>
-      <c r="L7" s="5">
-        <v>34270</v>
-      </c>
-      <c r="M7" s="5">
-        <v>9438.64</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>9438.64</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="4">
-        <v>10</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="4">
-        <v>23690</v>
-      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>1013554</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>5002170904</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>1179.83</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>4611.8</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>0.44802083333333331</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>0.53865740740740742</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AS7" s="7">
-        <v>0.44802083333333331</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>44656</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>0.53862268518518519</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
-      <c r="AY7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ7" s="19">
-        <v>1001700000000</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB7" s="19">
-        <v>1001700000000</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="4"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44656</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1860,16 +1598,10 @@
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="11">
-        <v>206530</v>
-      </c>
-      <c r="M8" s="11">
-        <v>56809.97</v>
-      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="11">
-        <v>56809.97</v>
-      </c>
+      <c r="O8" s="11"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1879,9 +1611,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -1914,1265 +1644,463 @@
       <c r="BC8" s="9"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B9" s="4">
-        <v>503749</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G9" s="4">
-        <v>10086434</v>
-      </c>
-      <c r="H9" s="12">
-        <v>240597</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="5">
-        <v>53400</v>
-      </c>
-      <c r="K9" s="5">
-        <v>19260</v>
-      </c>
-      <c r="L9" s="5">
-        <v>34140</v>
-      </c>
-      <c r="M9" s="5">
-        <v>9402.84</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>9402.84</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4">
-        <v>10</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="4">
-        <v>23700</v>
-      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>1013553</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>5002171622</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>1175.3499999999999</v>
-      </c>
-      <c r="AK9" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>4594.3</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>0.18228009259259259</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>0.25965277777777779</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>0.18228009259259259</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>0.25961805555555556</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
-      <c r="AY9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ9" s="19">
-        <v>1001500000000</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB9" s="19">
-        <v>1001500000000</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="4"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B10" s="4">
-        <v>503750</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10086488</v>
-      </c>
-      <c r="H10" s="12">
-        <v>240401</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="5">
-        <v>54000</v>
-      </c>
-      <c r="K10" s="5">
-        <v>19150</v>
-      </c>
-      <c r="L10" s="5">
-        <v>34850</v>
-      </c>
-      <c r="M10" s="5">
-        <v>9562.07</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>9562.07</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="4">
-        <v>10</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W10" s="4">
-        <v>8010</v>
-      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>1013438</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>5002171559</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>1195.26</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>11322.63</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>0.18524305555555556</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ10" s="7">
-        <v>0.27135416666666667</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS10" s="7">
-        <v>0.18524305555555556</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU10" s="7">
-        <v>0.27133101851851854</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
-      <c r="AY10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ10" s="19">
-        <v>1703100000000</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB10" s="19">
-        <v>1703100000000</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="4"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B11" s="4">
-        <v>503751</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10086493</v>
-      </c>
-      <c r="H11" s="12">
-        <v>240715</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="5">
-        <v>53330</v>
-      </c>
-      <c r="K11" s="5">
-        <v>18700</v>
-      </c>
-      <c r="L11" s="5">
-        <v>34630</v>
-      </c>
-      <c r="M11" s="5">
-        <v>9501.7099999999991</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>9501.7099999999991</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="4">
-        <v>10</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W11" s="4">
-        <v>8020</v>
-      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>1013162</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>5002171564</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>1187.71</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>11251.15</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>0.18818287037037038</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>0.27636574074074077</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS11" s="7">
-        <v>0.18818287037037038</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU11" s="7">
-        <v>0.27633101851851855</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ11" s="19">
-        <v>1002000000000</v>
-      </c>
-      <c r="BA11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB11" s="19">
-        <v>1002000000000</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="4"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B12" s="4">
-        <v>503752</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G12" s="4">
-        <v>10086491</v>
-      </c>
-      <c r="H12" s="12">
-        <v>240598</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="5">
-        <v>53170</v>
-      </c>
-      <c r="K12" s="5">
-        <v>18970</v>
-      </c>
-      <c r="L12" s="5">
-        <v>34200</v>
-      </c>
-      <c r="M12" s="5">
-        <v>9419.36</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>9419.36</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4">
-        <v>10</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="4">
-        <v>23710</v>
-      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>1013162</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>5002171634</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>1177.42</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>4602.38</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO12" s="7">
-        <v>0.19153935185185186</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ12" s="7">
-        <v>0.31958333333333333</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS12" s="7">
-        <v>0.19153935185185186</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU12" s="7">
-        <v>0.3195486111111111</v>
-      </c>
-      <c r="AV12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW12" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
-      <c r="AY12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ12" s="19">
-        <v>1002000000000</v>
-      </c>
-      <c r="BA12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB12" s="19">
-        <v>1002000000000</v>
-      </c>
-      <c r="BC12" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="4"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B13" s="4">
-        <v>503776</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G13" s="4">
-        <v>10086505</v>
-      </c>
-      <c r="H13" s="12">
-        <v>240953</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="5">
-        <v>55270</v>
-      </c>
-      <c r="K13" s="5">
-        <v>20440</v>
-      </c>
-      <c r="L13" s="5">
-        <v>34830</v>
-      </c>
-      <c r="M13" s="5">
-        <v>9556.59</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>9556.59</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="4">
-        <v>10</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" s="4">
-        <v>8030</v>
-      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>1013520</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>5002171568</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ13" s="5">
-        <v>1194.57</v>
-      </c>
-      <c r="AK13" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="AL13" s="5">
-        <v>11316.13</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>0.36069444444444443</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>0.41637731481481483</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS13" s="7">
-        <v>0.36069444444444443</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU13" s="7">
-        <v>0.4163425925925926</v>
-      </c>
-      <c r="AV13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW13" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
-      <c r="AY13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ13" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BA13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB13" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="4"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B14" s="4">
-        <v>503779</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G14" s="4">
-        <v>10086504</v>
-      </c>
-      <c r="H14" s="12">
-        <v>240952</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="5">
-        <v>53860</v>
-      </c>
-      <c r="K14" s="5">
-        <v>19080</v>
-      </c>
-      <c r="L14" s="5">
-        <v>34780</v>
-      </c>
-      <c r="M14" s="5">
-        <v>9542.8700000000008</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>9542.8700000000008</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="4">
-        <v>10</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="4">
-        <v>8040</v>
-      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>1023091</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>5002171572</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>1192.8599999999999</v>
-      </c>
-      <c r="AK14" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>11299.89</v>
-      </c>
-      <c r="AM14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>0.40652777777777777</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ14" s="7">
-        <v>0.46181712962962962</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS14" s="7">
-        <v>0.40652777777777777</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>0.46178240740740745</v>
-      </c>
-      <c r="AV14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW14" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
-      <c r="AY14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ14" s="19">
-        <v>1001500000000</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB14" s="19">
-        <v>1001500000000</v>
-      </c>
-      <c r="BC14" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="4"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B15" s="4">
-        <v>503930</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G15" s="4">
-        <v>10086516</v>
-      </c>
-      <c r="H15" s="12">
-        <v>240954</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="5">
-        <v>54460</v>
-      </c>
-      <c r="K15" s="5">
-        <v>19640</v>
-      </c>
-      <c r="L15" s="5">
-        <v>34820</v>
-      </c>
-      <c r="M15" s="5">
-        <v>9553.84</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>9553.84</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4">
-        <v>10</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="4">
-        <v>8050</v>
-      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>1013389</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>5002171576</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>1194.23</v>
-      </c>
-      <c r="AK15" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>11312.89</v>
-      </c>
-      <c r="AM15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>0.4523726851851852</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>0.49701388888888887</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS15" s="7">
-        <v>0.4523726851851852</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>0.49699074074074073</v>
-      </c>
-      <c r="AV15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW15" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
-      <c r="AY15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ15" s="19">
-        <v>1791400000000</v>
-      </c>
-      <c r="BA15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB15" s="19">
-        <v>1791400000000</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="4"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44657</v>
-      </c>
-      <c r="B16" s="4">
-        <v>503931</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G16" s="4">
-        <v>10086521</v>
-      </c>
-      <c r="H16" s="12">
-        <v>240950</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="5">
-        <v>55620</v>
-      </c>
-      <c r="K16" s="5">
-        <v>20750</v>
-      </c>
-      <c r="L16" s="5">
-        <v>34870</v>
-      </c>
-      <c r="M16" s="5">
-        <v>9567.56</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>9567.56</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4">
-        <v>10</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W16" s="4">
-        <v>8060</v>
-      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>1013922</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>5002171580</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>1387.3</v>
-      </c>
-      <c r="AK16" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>11520.49</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>0.47635416666666663</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>0.52369212962962963</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AS16" s="7">
-        <v>0.47635416666666663</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>44657</v>
-      </c>
-      <c r="AU16" s="7">
-        <v>0.52362268518518518</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
-      <c r="AY16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ16" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB16" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="4"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>44657</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3183,16 +2111,10 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="11">
-        <v>277120</v>
-      </c>
-      <c r="M17" s="11">
-        <v>76106.84</v>
-      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="11">
-        <v>76106.84</v>
-      </c>
+      <c r="O17" s="11"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3202,9 +2124,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -3237,632 +2157,232 @@
       <c r="BC17" s="9"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44658</v>
-      </c>
-      <c r="B18" s="4">
-        <v>503954</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G18" s="4">
-        <v>10086492</v>
-      </c>
-      <c r="H18" s="4">
-        <v>240947</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="5">
-        <v>53730</v>
-      </c>
-      <c r="K18" s="5">
-        <v>19630</v>
-      </c>
-      <c r="L18" s="5">
-        <v>34100</v>
-      </c>
-      <c r="M18" s="5">
-        <v>9391.82</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>9391.82</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4">
-        <v>10</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W18" s="4">
-        <v>23720</v>
-      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD18" s="4">
-        <v>10008034</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>5002173839</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>1361.81</v>
-      </c>
-      <c r="AK18" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="AL18" s="5">
-        <v>4776.75</v>
-      </c>
-      <c r="AM18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>0.1975810185185185</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AQ18" s="7">
-        <v>0.31502314814814814</v>
-      </c>
-      <c r="AR18" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AS18" s="7">
-        <v>0.1975810185185185</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AU18" s="7">
-        <v>0.315</v>
-      </c>
-      <c r="AV18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW18" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
-      <c r="AY18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ18" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BA18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB18" s="19">
-        <v>1791900000000</v>
-      </c>
-      <c r="BC18" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="4"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44658</v>
-      </c>
-      <c r="B19" s="4">
-        <v>503955</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4400097566</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10086575</v>
-      </c>
-      <c r="H19" s="4">
-        <v>240948</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="5">
-        <v>54870</v>
-      </c>
-      <c r="K19" s="5">
-        <v>20730</v>
-      </c>
-      <c r="L19" s="5">
-        <v>34140</v>
-      </c>
-      <c r="M19" s="5">
-        <v>9402.84</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>9402.84</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4">
-        <v>10</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W19" s="4">
-        <v>23730</v>
-      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>1013922</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>5002173840</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>1363.41</v>
-      </c>
-      <c r="AK19" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="AL19" s="5">
-        <v>4782.3599999999997</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>0.20067129629629629</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>0.37709490740740742</v>
-      </c>
-      <c r="AR19" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AS19" s="7">
-        <v>0.20067129629629629</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AU19" s="7">
-        <v>0.37707175925925923</v>
-      </c>
-      <c r="AV19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW19" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
-      <c r="AY19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ19" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BA19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB19" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BC19" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="4"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44658</v>
-      </c>
-      <c r="B20" s="4">
-        <v>503958</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10086501</v>
-      </c>
-      <c r="H20" s="4">
-        <v>240951</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="5">
-        <v>53960</v>
-      </c>
-      <c r="K20" s="5">
-        <v>19160</v>
-      </c>
-      <c r="L20" s="5">
-        <v>34800</v>
-      </c>
-      <c r="M20" s="5">
-        <v>9548.35</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>9548.35</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4">
-        <v>10</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W20" s="4">
-        <v>8070</v>
-      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>1014149</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>5002173837</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AJ20" s="5">
-        <v>1384.51</v>
-      </c>
-      <c r="AK20" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>11497.35</v>
-      </c>
-      <c r="AM20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>0.20755787037037035</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>0.2565162037037037</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AS20" s="7">
-        <v>0.20755787037037035</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AU20" s="7">
-        <v>0.25648148148148148</v>
-      </c>
-      <c r="AV20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW20" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
-      <c r="AY20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ20" s="19">
-        <v>1103300000000</v>
-      </c>
-      <c r="BA20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB20" s="19">
-        <v>1103300000000</v>
-      </c>
-      <c r="BC20" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="4"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44658</v>
-      </c>
-      <c r="B21" s="4">
-        <v>503964</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4400097565</v>
-      </c>
-      <c r="G21" s="4">
-        <v>10086597</v>
-      </c>
-      <c r="H21" s="4">
-        <v>240945</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="5">
-        <v>53530</v>
-      </c>
-      <c r="K21" s="5">
-        <v>18730</v>
-      </c>
-      <c r="L21" s="5">
-        <v>34800</v>
-      </c>
-      <c r="M21" s="5">
-        <v>9548.35</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>9548.35</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4">
-        <v>10</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="4">
-        <v>8080</v>
-      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>1024637</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>1013917</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>5002173838</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AJ21" s="5">
-        <v>1384.51</v>
-      </c>
-      <c r="AK21" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>11497.35</v>
-      </c>
-      <c r="AM21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>0.29378472222222224</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AQ21" s="7">
-        <v>0.38521990740740741</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AS21" s="7">
-        <v>0.29378472222222224</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>44658</v>
-      </c>
-      <c r="AU21" s="7">
-        <v>0.38519675925925928</v>
-      </c>
-      <c r="AV21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW21" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
-      <c r="AY21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ21" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BA21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB21" s="19">
-        <v>1001200000000</v>
-      </c>
-      <c r="BC21" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="4"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>

--- a/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
+++ b/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="100">
   <si>
     <t>Fecha Ticket</t>
   </si>
@@ -246,6 +246,84 @@
   </si>
   <si>
     <t>IBARRA VALLEJO EDUARDO GUILLER</t>
+  </si>
+  <si>
+    <t>18-UE202</t>
+  </si>
+  <si>
+    <t>MENA VACAS CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>06-00000056</t>
+  </si>
+  <si>
+    <t>RESIDUO INDUSTRIAL P.ELECTRICA</t>
+  </si>
+  <si>
+    <t>18-UE253</t>
+  </si>
+  <si>
+    <t>GASOLINAS Y SERVICIOS PEREZ HI</t>
+  </si>
+  <si>
+    <t>18-UE254</t>
+  </si>
+  <si>
+    <t>ROMO AYALA LUIS VIRGILIO</t>
+  </si>
+  <si>
+    <t>18-UE258</t>
+  </si>
+  <si>
+    <t>C.E.T.S.O. TRANSPORTE EXTRAPES</t>
+  </si>
+  <si>
+    <t>18-UE212</t>
+  </si>
+  <si>
+    <t>BURBANO GARCIA RAMIRO ARNULFO</t>
+  </si>
+  <si>
+    <t>18-UE213</t>
+  </si>
+  <si>
+    <t>BURBANO GARCIA EDISON RICARDO</t>
+  </si>
+  <si>
+    <t>18-UE208</t>
+  </si>
+  <si>
+    <t>COBA CHAMORRO MARIA DEL PILAR</t>
+  </si>
+  <si>
+    <t>18-UE255</t>
+  </si>
+  <si>
+    <t>PASQUEL GUERRERO HUGO RAFAEL</t>
+  </si>
+  <si>
+    <t>18-UE191</t>
+  </si>
+  <si>
+    <t>18-UE192</t>
+  </si>
+  <si>
+    <t>18-UE203</t>
+  </si>
+  <si>
+    <t>ERAZO ANDRADE LUISA</t>
+  </si>
+  <si>
+    <t>18-UE251</t>
+  </si>
+  <si>
+    <t>TRAIMCOBSA TRANSPORTES IMPORTA</t>
+  </si>
+  <si>
+    <t>18-UE210</t>
+  </si>
+  <si>
+    <t>18-UE257</t>
   </si>
 </sst>
 </file>
@@ -266,7 +344,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -307,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -334,6 +418,19 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BC3"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +891,10 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="B2" s="4">
-        <v>503958</v>
+        <v>503547</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>54</v>
@@ -812,31 +909,31 @@
         <v>4400097565</v>
       </c>
       <c r="G2" s="4">
-        <v>10086501</v>
+        <v>10086411</v>
       </c>
       <c r="H2" s="4">
-        <v>240951</v>
+        <v>240394</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J2" s="5">
-        <v>53960</v>
+        <v>55340</v>
       </c>
       <c r="K2" s="5">
-        <v>19160</v>
+        <v>20550</v>
       </c>
       <c r="L2" s="5">
-        <v>34800</v>
+        <v>34790</v>
       </c>
       <c r="M2" s="5">
-        <v>9548.35</v>
+        <v>9545.61</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>9548.35</v>
+        <v>9545.61</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -856,7 +953,7 @@
         <v>57</v>
       </c>
       <c r="W2" s="4">
-        <v>8070</v>
+        <v>7990</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="s">
@@ -875,10 +972,10 @@
         <v>61</v>
       </c>
       <c r="AD2" s="4">
-        <v>1014149</v>
+        <v>1021420</v>
       </c>
       <c r="AE2" s="4">
-        <v>5002173837</v>
+        <v>5002170677</v>
       </c>
       <c r="AF2" s="4">
         <v>2022</v>
@@ -888,43 +985,43 @@
         <v>0</v>
       </c>
       <c r="AI2" s="6">
-        <v>0.14499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1384.51</v>
+        <v>1193.2</v>
       </c>
       <c r="AK2" s="6">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AL2" s="5">
-        <v>11497.35</v>
+        <v>11303.14</v>
       </c>
       <c r="AM2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AN2" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AO2" s="7">
-        <v>0.20755787037037035</v>
+        <v>0.263125</v>
       </c>
       <c r="AP2" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AQ2" s="7">
-        <v>0.2565162037037037</v>
+        <v>0.32738425925925924</v>
       </c>
       <c r="AR2" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AS2" s="7">
-        <v>0.20755787037037035</v>
+        <v>0.263125</v>
       </c>
       <c r="AT2" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AU2" s="7">
-        <v>0.25648148148148148</v>
+        <v>0.32734953703703701</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>62</v>
@@ -937,24 +1034,24 @@
         <v>64</v>
       </c>
       <c r="AZ2" s="9">
-        <v>1103300000000</v>
+        <v>1002200000000</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="BB2" s="9">
-        <v>1103300000000</v>
+        <v>1002200000000</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="B3" s="4">
-        <v>503964</v>
+        <v>503551</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>54</v>
@@ -969,10 +1066,10 @@
         <v>4400097565</v>
       </c>
       <c r="G3" s="4">
-        <v>10086597</v>
+        <v>10086412</v>
       </c>
       <c r="H3" s="4">
-        <v>240945</v>
+        <v>240395</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>72</v>
@@ -981,19 +1078,19 @@
         <v>53530</v>
       </c>
       <c r="K3" s="5">
-        <v>18730</v>
+        <v>18720</v>
       </c>
       <c r="L3" s="5">
-        <v>34800</v>
+        <v>34810</v>
       </c>
       <c r="M3" s="5">
-        <v>9548.35</v>
+        <v>9551.1</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <v>9548.35</v>
+        <v>9551.1</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -1013,7 +1110,7 @@
         <v>57</v>
       </c>
       <c r="W3" s="4">
-        <v>8080</v>
+        <v>8000</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="s">
@@ -1035,7 +1132,7 @@
         <v>1013917</v>
       </c>
       <c r="AE3" s="4">
-        <v>5002173838</v>
+        <v>5002170682</v>
       </c>
       <c r="AF3" s="4">
         <v>2022</v>
@@ -1045,43 +1142,43 @@
         <v>0</v>
       </c>
       <c r="AI3" s="6">
-        <v>0.14499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="AJ3" s="5">
-        <v>1384.51</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="AK3" s="6">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AL3" s="5">
-        <v>11497.35</v>
+        <v>11309.64</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AN3" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AO3" s="7">
-        <v>0.29378472222222224</v>
+        <v>0.27520833333333333</v>
       </c>
       <c r="AP3" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AQ3" s="7">
-        <v>0.38521990740740741</v>
+        <v>0.42888888888888888</v>
       </c>
       <c r="AR3" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AS3" s="7">
-        <v>0.29378472222222224</v>
+        <v>0.27520833333333333</v>
       </c>
       <c r="AT3" s="3">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="AU3" s="7">
-        <v>0.38519675925925928</v>
+        <v>0.4288541666666667</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>62</v>
@@ -1103,6 +1200,2652 @@
         <v>1001200000000</v>
       </c>
       <c r="BC3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44656</v>
+      </c>
+      <c r="B4" s="4">
+        <v>503554</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10086423</v>
+      </c>
+      <c r="H4" s="4">
+        <v>240700</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="5">
+        <v>54080</v>
+      </c>
+      <c r="K4" s="5">
+        <v>20010</v>
+      </c>
+      <c r="L4" s="5">
+        <v>34070</v>
+      </c>
+      <c r="M4" s="5">
+        <v>9383.56</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9383.56</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="4">
+        <v>23660</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1013520</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>5002170899</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>1172.94</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>4584.88</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0.36542824074074076</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>0.36539351851851848</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB4" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="B5" s="4">
+        <v>503557</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10086425</v>
+      </c>
+      <c r="H5" s="4">
+        <v>240595</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="5">
+        <v>54970</v>
+      </c>
+      <c r="K5" s="5">
+        <v>20660</v>
+      </c>
+      <c r="L5" s="5">
+        <v>34310</v>
+      </c>
+      <c r="M5" s="5">
+        <v>9449.66</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9449.66</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
+        <v>10</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="4">
+        <v>23670</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1013922</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>5002170901</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1181.21</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>4617.18</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>0.30511574074074072</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0.41274305555555557</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>0.30511574074074072</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>0.41270833333333329</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44656</v>
+      </c>
+      <c r="B6" s="4">
+        <v>503573</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10086339</v>
+      </c>
+      <c r="H6" s="4">
+        <v>240602</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="5">
+        <v>54870</v>
+      </c>
+      <c r="K6" s="5">
+        <v>20590</v>
+      </c>
+      <c r="L6" s="5">
+        <v>34280</v>
+      </c>
+      <c r="M6" s="5">
+        <v>9441.4</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9441.4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="4">
+        <v>23680</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>10008034</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>5002170902</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1180.17</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>4613.1400000000003</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0.37731481481481483</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0.47094907407407405</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0.37731481481481483</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>0.47091435185185188</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44656</v>
+      </c>
+      <c r="B7" s="4">
+        <v>503595</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10086426</v>
+      </c>
+      <c r="H7" s="4">
+        <v>240596</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="5">
+        <v>53430</v>
+      </c>
+      <c r="K7" s="5">
+        <v>19160</v>
+      </c>
+      <c r="L7" s="5">
+        <v>34270</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9438.64</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9438.64</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="4">
+        <v>23690</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1013554</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>5002170904</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>1179.83</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>4611.8</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0.44802083333333331</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0.53865740740740742</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0.44802083333333331</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>44656</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0.53862268518518519</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>1001700000000</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB7" s="9">
+        <v>1001700000000</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44656</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13">
+        <v>206530</v>
+      </c>
+      <c r="M8" s="13">
+        <v>56809.97</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13">
+        <v>56809.97</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B9" s="4">
+        <v>503749</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10086434</v>
+      </c>
+      <c r="H9" s="14">
+        <v>240597</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="5">
+        <v>53400</v>
+      </c>
+      <c r="K9" s="5">
+        <v>19260</v>
+      </c>
+      <c r="L9" s="5">
+        <v>34140</v>
+      </c>
+      <c r="M9" s="5">
+        <v>9402.84</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>9402.84</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>10</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="4">
+        <v>23700</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1013553</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>5002171622</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>1175.3499999999999</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>4594.3</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>0.18228009259259259</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0.25965277777777779</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>0.18228009259259259</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>0.25961805555555556</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ9" s="9">
+        <v>1001500000000</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB9" s="9">
+        <v>1001500000000</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B10" s="4">
+        <v>503750</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10086488</v>
+      </c>
+      <c r="H10" s="14">
+        <v>240401</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="5">
+        <v>54000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>19150</v>
+      </c>
+      <c r="L10" s="5">
+        <v>34850</v>
+      </c>
+      <c r="M10" s="5">
+        <v>9562.07</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9562.07</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>10</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="4">
+        <v>8010</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1013438</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>5002171559</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>1195.26</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>11322.63</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>0.18524305555555556</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0.27135416666666667</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0.18524305555555556</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>0.27133101851851854</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ10" s="9">
+        <v>1703100000000</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB10" s="9">
+        <v>1703100000000</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B11" s="4">
+        <v>503751</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10086493</v>
+      </c>
+      <c r="H11" s="14">
+        <v>240715</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5">
+        <v>53330</v>
+      </c>
+      <c r="K11" s="5">
+        <v>18700</v>
+      </c>
+      <c r="L11" s="5">
+        <v>34630</v>
+      </c>
+      <c r="M11" s="5">
+        <v>9501.7099999999991</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>9501.7099999999991</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>10</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="4">
+        <v>8020</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1013162</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>5002171564</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>1187.71</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>11251.15</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0.18818287037037038</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0.27636574074074077</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0.18818287037037038</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>0.27633101851851855</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>1002000000000</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB11" s="9">
+        <v>1002000000000</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B12" s="4">
+        <v>503752</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10086491</v>
+      </c>
+      <c r="H12" s="14">
+        <v>240598</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="5">
+        <v>53170</v>
+      </c>
+      <c r="K12" s="5">
+        <v>18970</v>
+      </c>
+      <c r="L12" s="5">
+        <v>34200</v>
+      </c>
+      <c r="M12" s="5">
+        <v>9419.36</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>9419.36</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4">
+        <v>10</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="4">
+        <v>23710</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1013162</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>5002171634</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>1177.42</v>
+      </c>
+      <c r="AK12" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>4602.38</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0.19153935185185186</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0.31958333333333333</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0.19153935185185186</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>0.3195486111111111</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>1002000000000</v>
+      </c>
+      <c r="BA12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>1002000000000</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B13" s="4">
+        <v>503776</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10086505</v>
+      </c>
+      <c r="H13" s="14">
+        <v>240953</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="5">
+        <v>55270</v>
+      </c>
+      <c r="K13" s="5">
+        <v>20440</v>
+      </c>
+      <c r="L13" s="5">
+        <v>34830</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9556.59</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>9556.59</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4">
+        <v>10</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="4">
+        <v>8030</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1013520</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>5002171568</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>1194.57</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>11316.13</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0.36069444444444443</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0.41637731481481483</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>0.36069444444444443</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>0.4163425925925926</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ13" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB13" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B14" s="4">
+        <v>503779</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10086504</v>
+      </c>
+      <c r="H14" s="14">
+        <v>240952</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="5">
+        <v>53860</v>
+      </c>
+      <c r="K14" s="5">
+        <v>19080</v>
+      </c>
+      <c r="L14" s="5">
+        <v>34780</v>
+      </c>
+      <c r="M14" s="5">
+        <v>9542.8700000000008</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9542.8700000000008</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>10</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="4">
+        <v>8040</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1023091</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>5002171572</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1192.8599999999999</v>
+      </c>
+      <c r="AK14" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>11299.89</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0.40652777777777777</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0.46181712962962962</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>0.40652777777777777</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>0.46178240740740745</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ14" s="9">
+        <v>1001500000000</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB14" s="9">
+        <v>1001500000000</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B15" s="4">
+        <v>503930</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10086516</v>
+      </c>
+      <c r="H15" s="14">
+        <v>240954</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="5">
+        <v>54460</v>
+      </c>
+      <c r="K15" s="5">
+        <v>19640</v>
+      </c>
+      <c r="L15" s="5">
+        <v>34820</v>
+      </c>
+      <c r="M15" s="5">
+        <v>9553.84</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9553.84</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4">
+        <v>10</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="4">
+        <v>8050</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1013389</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>5002171576</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1194.23</v>
+      </c>
+      <c r="AK15" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>11312.89</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0.4523726851851852</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0.49701388888888887</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0.4523726851851852</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>0.49699074074074073</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="9">
+        <v>1791400000000</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB15" s="9">
+        <v>1791400000000</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B16" s="4">
+        <v>503931</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10086521</v>
+      </c>
+      <c r="H16" s="14">
+        <v>240950</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="5">
+        <v>55620</v>
+      </c>
+      <c r="K16" s="5">
+        <v>20750</v>
+      </c>
+      <c r="L16" s="5">
+        <v>34870</v>
+      </c>
+      <c r="M16" s="5">
+        <v>9567.56</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>9567.56</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4">
+        <v>10</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="4">
+        <v>8060</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1013922</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>5002171580</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>1387.3</v>
+      </c>
+      <c r="AK16" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>11520.49</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0.47635416666666663</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0.52369212962962963</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0.47635416666666663</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0.52362268518518518</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ16" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB16" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BC16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44657</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13">
+        <v>277120</v>
+      </c>
+      <c r="M17" s="13">
+        <v>76106.84</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13">
+        <v>76106.84</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44658</v>
+      </c>
+      <c r="B18" s="4">
+        <v>503954</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10086492</v>
+      </c>
+      <c r="H18" s="4">
+        <v>240947</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="5">
+        <v>53730</v>
+      </c>
+      <c r="K18" s="5">
+        <v>19630</v>
+      </c>
+      <c r="L18" s="5">
+        <v>34100</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9391.82</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>9391.82</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
+        <v>10</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="4">
+        <v>23720</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>10008034</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>5002173839</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>1361.81</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>4776.75</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>0.1975810185185185</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>0.31502314814814814</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>0.1975810185185185</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ18" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB18" s="9">
+        <v>1791900000000</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44658</v>
+      </c>
+      <c r="B19" s="4">
+        <v>503955</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4400097566</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10086575</v>
+      </c>
+      <c r="H19" s="4">
+        <v>240948</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="5">
+        <v>54870</v>
+      </c>
+      <c r="K19" s="5">
+        <v>20730</v>
+      </c>
+      <c r="L19" s="5">
+        <v>34140</v>
+      </c>
+      <c r="M19" s="5">
+        <v>9402.84</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>9402.84</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4">
+        <v>10</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="4">
+        <v>23730</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1013922</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>5002173840</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>1363.41</v>
+      </c>
+      <c r="AK19" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>4782.3599999999997</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>0.20067129629629629</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>0.37709490740740742</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>0.20067129629629629</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>0.37707175925925923</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ19" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BA19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB19" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44658</v>
+      </c>
+      <c r="B20" s="4">
+        <v>503958</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10086501</v>
+      </c>
+      <c r="H20" s="4">
+        <v>240951</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="5">
+        <v>53960</v>
+      </c>
+      <c r="K20" s="5">
+        <v>19160</v>
+      </c>
+      <c r="L20" s="5">
+        <v>34800</v>
+      </c>
+      <c r="M20" s="5">
+        <v>9548.35</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>9548.35</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4">
+        <v>10</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" s="4">
+        <v>8070</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1014149</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>5002173837</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>1384.51</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>11497.35</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>0.20755787037037035</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>0.2565162037037037</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>0.20755787037037035</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>0.25648148148148148</v>
+      </c>
+      <c r="AV20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ20" s="9">
+        <v>1103300000000</v>
+      </c>
+      <c r="BA20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB20" s="9">
+        <v>1103300000000</v>
+      </c>
+      <c r="BC20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44658</v>
+      </c>
+      <c r="B21" s="4">
+        <v>503964</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4400097565</v>
+      </c>
+      <c r="G21" s="4">
+        <v>10086597</v>
+      </c>
+      <c r="H21" s="4">
+        <v>240945</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="5">
+        <v>53530</v>
+      </c>
+      <c r="K21" s="5">
+        <v>18730</v>
+      </c>
+      <c r="L21" s="5">
+        <v>34800</v>
+      </c>
+      <c r="M21" s="5">
+        <v>9548.35</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>9548.35</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4">
+        <v>10</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="4">
+        <v>8080</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1024637</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1013917</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>5002173838</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>1384.51</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>11497.35</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>0.29378472222222224</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>0.38521990740740741</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>0.29378472222222224</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>44658</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>0.38519675925925928</v>
+      </c>
+      <c r="AV21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ21" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BA21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB21" s="9">
+        <v>1001200000000</v>
+      </c>
+      <c r="BC21" s="4" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
+++ b/Robot Procesamiento TERPEL/Config/ZMM023/reversaZMM023.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A2" sqref="A2:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
